--- a/MainTop/08.08.2024/вб_печать.xlsx
+++ b/MainTop/08.08.2024/вб_печать.xlsx
@@ -34,13 +34,13 @@
     <t xml:space="preserve">Термонаклейка Единорог и балерина</t>
   </si>
   <si>
-    <t xml:space="preserve">Термобирки Ирина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термобирки Юлия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Девушка с чупа чупсом I dont care</t>
+    <t xml:space="preserve">Термонаклейка Динозавры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единороги набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. День рождения</t>
   </si>
 </sst>
 </file>
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,20 +74,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,21 +84,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF216BFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF216BFF"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -143,16 +118,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,66 +132,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF216BFF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -236,7 +143,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,31 +168,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
